--- a/src-tauri/assets/crimping_report_template_2.xlsx
+++ b/src-tauri/assets/crimping_report_template_2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
   <si>
     <t>Предприятие:</t>
   </si>
@@ -80,12 +80,6 @@
     <t>2.2. Расчет количества операций обжима и технологических сил</t>
   </si>
   <si>
-    <t>Предельный коэффициент обжима</t>
-  </si>
-  <si>
-    <t>Итоговый коэффициент обжима за весь процесс</t>
-  </si>
-  <si>
     <t>Коэффициент деформации</t>
   </si>
   <si>
@@ -129,6 +123,12 @@
   </si>
   <si>
     <t>Радиус скругления, гр</t>
+  </si>
+  <si>
+    <t>Угол b, гр</t>
+  </si>
+  <si>
+    <t>Предельный коэф. обжима, мм</t>
   </si>
   <si>
     <t xml:space="preserve">Коэффициент обжима для 2-ой операции </t>
@@ -298,33 +298,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -336,9 +339,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I120"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A46" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A52" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -647,57 +647,57 @@
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
@@ -717,28 +717,28 @@
         <v>3</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="13" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
@@ -754,479 +754,509 @@
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="8"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="8"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="8"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="8"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="46" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A46" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+    </row>
+    <row r="47" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A47" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="46" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-    </row>
-    <row r="47" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="13"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="11"/>
       <c r="H49"/>
       <c r="I49"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="11"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="13"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="13"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="13"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="13"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="13"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="13"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="13"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="13"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="8"/>
-    </row>
-    <row r="60" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="11"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="9" t="s">
+      <c r="F60" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="13"/>
+    </row>
+    <row r="61" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A62" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="11"/>
+      <c r="H64"/>
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="11"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="11"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="13"/>
-      <c r="H62"/>
-      <c r="I62"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="9" t="s">
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="11"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="11"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="13"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="9" t="s">
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="11"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" s="13"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G65" s="13"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" s="13"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="13"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="13"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="13"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="13"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="11"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="11"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="11"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="11"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="11"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="13"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
@@ -1258,47 +1288,55 @@
       <c r="I120" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
+  <mergeCells count="80">
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="F69:G69"/>
     <mergeCell ref="A70:E70"/>
     <mergeCell ref="F70:G70"/>
     <mergeCell ref="A71:E71"/>
     <mergeCell ref="F71:G71"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="F66:G66"/>
     <mergeCell ref="A67:E67"/>
     <mergeCell ref="F67:G67"/>
     <mergeCell ref="A68:E68"/>
     <mergeCell ref="F68:G68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="A62:I62"/>
     <mergeCell ref="A64:E64"/>
     <mergeCell ref="F64:G64"/>
     <mergeCell ref="A65:E65"/>
     <mergeCell ref="F65:G65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="A60:I60"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A46:I46"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:G24"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
@@ -1306,35 +1344,31 @@
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A8:I8"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="A52:E52"/>
     <mergeCell ref="A49:E49"/>
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="F50:G50"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="F51:G51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
